--- a/medicine/Enfance/Mamie_Colette_&_Co/Mamie_Colette_&_Co.xlsx
+++ b/medicine/Enfance/Mamie_Colette_&_Co/Mamie_Colette_&_Co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mamie_Colette_%26_Co</t>
+          <t>Mamie_Colette_&amp;_Co</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mamie Colette &amp; Co est un roman pour adolescents d'Isabelle Rossignol édité en 2007 à l'École des loisirs. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mamie_Colette_%26_Co</t>
+          <t>Mamie_Colette_&amp;_Co</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'histoire d'une vieille femme, Mamie Colette, et de son petit-fils Antoine. Antoine adore sa mamie, et il n'aime pas comme elle change quand elle va dans une maison de retraite. Antoine va la voir plusieurs fois, mais elle n'était plus marrante et pleine d'énergie...  elle sentait mauvais, elle était différente qu'avant.
 A la maison de retraite, il rencontre une fille, Juliette, qui était joyeuse même dans ce lieu sinistre. Antoine la voit chaque fois qu'il va voir sa grand-mère et il tomba amoureux d'elle. Ensemble ils font tout pour que ceux qui sont dans la maison de retraite soient heureux.
